--- a/Data/ESS Availability Pattern Requests and Manager Approval_SK_REG.xlsx
+++ b/Data/ESS Availability Pattern Requests and Manager Approval_SK_REG.xlsx
@@ -1,78 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
-  <workbookPr defaultThemeVersion="164011" filterPrivacy="1"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
+  <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{406C2F5E-127A-4E1B-A5D2-75D6F5B0F810}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet sheetId="1" name="Sheet1" state="visible" r:id="rId4"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="171027"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
-<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <authors>
-    <author>Author</author>
-  </authors>
-  <commentList>
-    <comment ref="F1" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <color indexed="81"/>
-            <family val="2"/>
-            <sz val="9"/>
-            <rFont val="Tahoma"/>
-          </rPr>
-          <t>Author:</t>
-        </r>
-        <r>
-          <rPr>
-            <color indexed="81"/>
-            <family val="2"/>
-            <sz val="9"/>
-            <rFont val="Tahoma"/>
-          </rPr>
-          <t xml:space="preserve">
-Specify date</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="L1" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <color indexed="81"/>
-            <family val="2"/>
-            <sz val="9"/>
-            <rFont val="Tahoma"/>
-          </rPr>
-          <t>Author:</t>
-        </r>
-        <r>
-          <rPr>
-            <color indexed="81"/>
-            <family val="2"/>
-            <sz val="9"/>
-            <rFont val="Tahoma"/>
-          </rPr>
-          <t xml:space="preserve">
-Yes-Approve/No-Refuse</t>
-        </r>
-      </text>
-    </comment>
-  </commentList>
-</comments>
-</file>
-
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="26">
   <si>
     <t>EmployeeID</t>
   </si>
@@ -86,6 +29,9 @@
     <t>ManagerPassword</t>
   </si>
   <si>
+    <t>GLAvailabilityChanges</t>
+  </si>
+  <si>
     <t>StartDate</t>
   </si>
   <si>
@@ -122,10 +68,13 @@
     <t>WFMManagerPassword@06</t>
   </si>
   <si>
-    <t>03/03/2025</t>
-  </si>
-  <si>
-    <t>04/03/2025</t>
+    <t>GL-Temporary Availability</t>
+  </si>
+  <si>
+    <t>14/07/2025</t>
+  </si>
+  <si>
+    <t>16/07/2025</t>
   </si>
   <si>
     <t>Day(s)</t>
@@ -134,44 +83,32 @@
     <t>Unavailable</t>
   </si>
   <si>
-    <t>Yes</t>
+    <t>No</t>
+  </si>
+  <si>
+    <t>Passed</t>
+  </si>
+  <si>
+    <t>17/07/2025</t>
   </si>
   <si>
     <t>Preferred Unavailable</t>
-  </si>
-  <si>
-    <t>Failed</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
+      <sz val="12"/>
       <color theme="1"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <color theme="1"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-      <sz val="12"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <u/>
-      <color theme="10"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-      <sz val="11"/>
-      <name val="Calibri"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -180,7 +117,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.5999938962981048"/>
+        <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -197,19 +140,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+  <cellXfs count="3">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -542,161 +482,151 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:N3"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" zoomScaleNormal="100">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.5" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="0.35" customHeight="1"/>
-  <cols>
-    <col min="1" max="1" width="10.6328125" customWidth="1"/>
-    <col min="2" max="2" width="25.453125" customWidth="1"/>
-    <col min="3" max="3" width="9.90625" customWidth="1"/>
-    <col min="4" max="4" width="16" customWidth="1"/>
-    <col min="5" max="6" width="12.1796875" customWidth="1"/>
-    <col min="7" max="7" width="11.08984375" customWidth="1"/>
-    <col min="8" max="8" width="12.453125" customWidth="1"/>
-    <col min="9" max="9" width="27.453125" customWidth="1"/>
-    <col min="10" max="10" width="8.6328125" customWidth="1"/>
-    <col min="11" max="11" width="14.08984375" customWidth="1"/>
-    <col min="12" max="12" width="15.81640625" customWidth="1"/>
-    <col min="13" max="13" width="9.1796875" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:14" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="J1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="K1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="L1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="M1" s="2" t="s">
         <v>12</v>
       </c>
+      <c r="N1" s="2" t="s">
+        <v>13</v>
+      </c>
     </row>
-    <row r="2" ht="15.5" customHeight="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>10648995</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C2" s="3" t="s">
+      <c r="B2" t="s">
         <v>14</v>
       </c>
+      <c r="C2" t="s">
+        <v>15</v>
+      </c>
       <c r="D2" t="s">
-        <v>15</v>
-      </c>
-      <c r="E2" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="E2" t="s">
         <v>17</v>
       </c>
-      <c r="G2">
-        <v>2</v>
-      </c>
-      <c r="H2" s="3" t="s">
+      <c r="F2" t="s">
         <v>18</v>
       </c>
+      <c r="G2" t="s">
+        <v>19</v>
+      </c>
+      <c r="H2">
+        <v>1</v>
+      </c>
       <c r="I2" t="s">
-        <v>19</v>
-      </c>
-      <c r="J2">
+        <v>20</v>
+      </c>
+      <c r="J2" t="s">
+        <v>21</v>
+      </c>
+      <c r="K2">
         <v>9</v>
       </c>
-      <c r="K2">
+      <c r="L2">
         <v>17</v>
       </c>
-      <c r="L2" t="s">
-        <v>20</v>
+      <c r="M2" t="s">
+        <v>22</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>23</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>10648995</v>
       </c>
-      <c r="B3" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C3" s="3" t="s">
+      <c r="B3" t="s">
         <v>14</v>
       </c>
+      <c r="C3" t="s">
+        <v>15</v>
+      </c>
       <c r="D3" t="s">
-        <v>15</v>
-      </c>
-      <c r="E3" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="F3" s="4" t="s">
+      <c r="E3" t="s">
         <v>17</v>
       </c>
-      <c r="G3">
-        <v>2</v>
-      </c>
-      <c r="H3" s="3" t="s">
-        <v>18</v>
+      <c r="F3" t="s">
+        <v>24</v>
+      </c>
+      <c r="G3" t="s">
+        <v>24</v>
+      </c>
+      <c r="H3">
+        <v>1</v>
       </c>
       <c r="I3" t="s">
-        <v>21</v>
-      </c>
-      <c r="J3">
+        <v>20</v>
+      </c>
+      <c r="J3" t="s">
+        <v>25</v>
+      </c>
+      <c r="K3">
         <v>9</v>
       </c>
-      <c r="K3">
+      <c r="L3">
         <v>12</v>
-      </c>
-      <c r="L3" t="s">
-        <v>20</v>
       </c>
       <c r="M3" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="4" spans="5:8" x14ac:dyDescent="0.25">
-      <c r="E4" s="5"/>
-      <c r="F4" s="5"/>
-      <c r="H4" s="3"/>
+      <c r="N3" s="1" t="s">
+        <v>23</v>
+      </c>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1"/>
-    <hyperlink ref="B3" r:id="rId2"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1" firstPageNumber="1" useFirstPageNumber="1" copies="1"/>
-  <legacyDrawing r:id="rId4"/>
+  <ignoredErrors>
+    <ignoredError sqref="A1:N3" numberStoredAsText="1"/>
+  </ignoredErrors>
 </worksheet>
 </file>
--- a/Data/ESS Availability Pattern Requests and Manager Approval_SK_REG.xlsx
+++ b/Data/ESS Availability Pattern Requests and Manager Approval_SK_REG.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{406C2F5E-127A-4E1B-A5D2-75D6F5B0F810}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3AD17659-FB7E-42FF-A8F7-F205243DB7BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="24">
   <si>
     <t>EmployeeID</t>
   </si>
@@ -68,15 +68,6 @@
     <t>WFMManagerPassword@06</t>
   </si>
   <si>
-    <t>GL-Temporary Availability</t>
-  </si>
-  <si>
-    <t>14/07/2025</t>
-  </si>
-  <si>
-    <t>16/07/2025</t>
-  </si>
-  <si>
     <t>Day(s)</t>
   </si>
   <si>
@@ -86,20 +77,30 @@
     <t>No</t>
   </si>
   <si>
-    <t>Passed</t>
-  </si>
-  <si>
-    <t>17/07/2025</t>
-  </si>
-  <si>
     <t>Preferred Unavailable</t>
+  </si>
+  <si>
+    <t>GL-Temporary Availability Unavailable</t>
+  </si>
+  <si>
+    <t>25/06/2025</t>
+  </si>
+  <si>
+    <t>Failed</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -140,10 +141,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -486,12 +489,16 @@
   <dimension ref="A1:N3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="6" max="6" width="10.4140625" customWidth="1"/>
+    <col min="7" max="7" width="11.75" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -535,7 +542,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:14" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>10648995</v>
       </c>
@@ -548,23 +555,23 @@
       <c r="D2" t="s">
         <v>16</v>
       </c>
-      <c r="E2" t="s">
-        <v>17</v>
-      </c>
-      <c r="F2" t="s">
-        <v>18</v>
-      </c>
-      <c r="G2" t="s">
-        <v>19</v>
+      <c r="E2" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="F2" s="4">
+        <v>45832</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>22</v>
       </c>
       <c r="H2">
         <v>1</v>
       </c>
       <c r="I2" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="J2" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="K2">
         <v>9</v>
@@ -573,13 +580,13 @@
         <v>17</v>
       </c>
       <c r="M2" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="N2" s="1" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="3" spans="1:14" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>10648995</v>
       </c>
@@ -592,23 +599,23 @@
       <c r="D3" t="s">
         <v>16</v>
       </c>
-      <c r="E3" t="s">
-        <v>17</v>
-      </c>
-      <c r="F3" t="s">
-        <v>24</v>
-      </c>
-      <c r="G3" t="s">
-        <v>24</v>
+      <c r="E3" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="F3" s="4">
+        <v>45832</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>22</v>
       </c>
       <c r="H3">
         <v>1</v>
       </c>
       <c r="I3" t="s">
+        <v>17</v>
+      </c>
+      <c r="J3" t="s">
         <v>20</v>
-      </c>
-      <c r="J3" t="s">
-        <v>25</v>
       </c>
       <c r="K3">
         <v>9</v>
@@ -617,7 +624,7 @@
         <v>12</v>
       </c>
       <c r="M3" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="N3" s="1" t="s">
         <v>23</v>
@@ -626,7 +633,7 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
-    <ignoredError sqref="A1:N3" numberStoredAsText="1"/>
+    <ignoredError sqref="A1:N1 A2:D3 H2:M3" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>